--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Clec11a-Itga10.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Clec11a-Itga10.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.576169</v>
+        <v>0.4723746666666667</v>
       </c>
       <c r="H2">
-        <v>1.728507</v>
+        <v>1.417124</v>
       </c>
       <c r="I2">
-        <v>0.03254571637877773</v>
+        <v>0.02676815992729067</v>
       </c>
       <c r="J2">
-        <v>0.03254571637877773</v>
+        <v>0.02676815992729067</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.5772876666666668</v>
+        <v>0.8689623333333333</v>
       </c>
       <c r="N2">
-        <v>1.731863</v>
+        <v>2.606887</v>
       </c>
       <c r="O2">
-        <v>0.2241579014468518</v>
+        <v>0.2842399713021852</v>
       </c>
       <c r="P2">
-        <v>0.2241579014468518</v>
+        <v>0.2842399713021851</v>
       </c>
       <c r="Q2">
-        <v>0.3326152576156667</v>
+        <v>0.4104757925542222</v>
       </c>
       <c r="R2">
-        <v>2.993537318541</v>
+        <v>3.694282132988</v>
       </c>
       <c r="S2">
-        <v>0.007295379484551251</v>
+        <v>0.007608581009545403</v>
       </c>
       <c r="T2">
-        <v>0.007295379484551251</v>
+        <v>0.007608581009545401</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.576169</v>
+        <v>0.4723746666666667</v>
       </c>
       <c r="H3">
-        <v>1.728507</v>
+        <v>1.417124</v>
       </c>
       <c r="I3">
-        <v>0.03254571637877773</v>
+        <v>0.02676815992729067</v>
       </c>
       <c r="J3">
-        <v>0.03254571637877773</v>
+        <v>0.02676815992729067</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>3.075748</v>
       </c>
       <c r="O3">
-        <v>0.3980991666542628</v>
+        <v>0.3353618792271216</v>
       </c>
       <c r="P3">
-        <v>0.3980991666542628</v>
+        <v>0.3353618792271216</v>
       </c>
       <c r="Q3">
-        <v>0.5907168831373333</v>
+        <v>0.4843018120835555</v>
       </c>
       <c r="R3">
-        <v>5.316451948236</v>
+        <v>4.358716308752</v>
       </c>
       <c r="S3">
-        <v>0.01295642256855741</v>
+        <v>0.008977020416668331</v>
       </c>
       <c r="T3">
-        <v>0.01295642256855741</v>
+        <v>0.008977020416668329</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.576169</v>
+        <v>0.4723746666666667</v>
       </c>
       <c r="H4">
-        <v>1.728507</v>
+        <v>1.417124</v>
       </c>
       <c r="I4">
-        <v>0.03254571637877773</v>
+        <v>0.02676815992729067</v>
       </c>
       <c r="J4">
-        <v>0.03254571637877773</v>
+        <v>0.02676815992729067</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.236315</v>
+        <v>0.378697</v>
       </c>
       <c r="N4">
-        <v>0.7089449999999999</v>
+        <v>1.136091</v>
       </c>
       <c r="O4">
-        <v>0.09175992757004355</v>
+        <v>0.1238728311724562</v>
       </c>
       <c r="P4">
-        <v>0.09175992757004356</v>
+        <v>0.1238728311724562</v>
       </c>
       <c r="Q4">
-        <v>0.136157377235</v>
+        <v>0.1788868691426667</v>
       </c>
       <c r="R4">
-        <v>1.225416395115</v>
+        <v>1.609981822284</v>
       </c>
       <c r="S4">
-        <v>0.002986392577631825</v>
+        <v>0.003315847755470585</v>
       </c>
       <c r="T4">
-        <v>0.002986392577631825</v>
+        <v>0.003315847755470584</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.576169</v>
+        <v>0.4723746666666667</v>
       </c>
       <c r="H5">
-        <v>1.728507</v>
+        <v>1.417124</v>
       </c>
       <c r="I5">
-        <v>0.03254571637877773</v>
+        <v>0.02676815992729067</v>
       </c>
       <c r="J5">
-        <v>0.03254571637877773</v>
+        <v>0.02676815992729067</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.4652066666666667</v>
+        <v>0.5162433333333333</v>
       </c>
       <c r="N5">
-        <v>1.39562</v>
+        <v>1.54873</v>
       </c>
       <c r="O5">
-        <v>0.180637412091635</v>
+        <v>0.1688646154416487</v>
       </c>
       <c r="P5">
-        <v>0.1806374120916351</v>
+        <v>0.1688646154416487</v>
       </c>
       <c r="Q5">
-        <v>0.2680376599266667</v>
+        <v>0.2438602725022222</v>
       </c>
       <c r="R5">
-        <v>2.41233893934</v>
+        <v>2.19474245252</v>
       </c>
       <c r="S5">
-        <v>0.005878973981330749</v>
+        <v>0.004520195032202489</v>
       </c>
       <c r="T5">
-        <v>0.00587897398133075</v>
+        <v>0.004520195032202488</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.576169</v>
+        <v>0.4723746666666667</v>
       </c>
       <c r="H6">
-        <v>1.728507</v>
+        <v>1.417124</v>
       </c>
       <c r="I6">
-        <v>0.03254571637877773</v>
+        <v>0.02676815992729067</v>
       </c>
       <c r="J6">
-        <v>0.03254571637877773</v>
+        <v>0.02676815992729067</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.271303</v>
+        <v>0.2679913333333333</v>
       </c>
       <c r="N6">
-        <v>0.813909</v>
+        <v>0.803974</v>
       </c>
       <c r="O6">
-        <v>0.1053455922372068</v>
+        <v>0.08766070285658835</v>
       </c>
       <c r="P6">
-        <v>0.1053455922372068</v>
+        <v>0.08766070285658834</v>
       </c>
       <c r="Q6">
-        <v>0.156316378207</v>
+        <v>0.1265923167528889</v>
       </c>
       <c r="R6">
-        <v>1.406847403863</v>
+        <v>1.139330850776</v>
       </c>
       <c r="S6">
-        <v>0.003428547766706502</v>
+        <v>0.002346515713403863</v>
       </c>
       <c r="T6">
-        <v>0.003428547766706503</v>
+        <v>0.002346515713403862</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>51.123939</v>
       </c>
       <c r="I7">
-        <v>0.9626025343605399</v>
+        <v>0.9656838605972748</v>
       </c>
       <c r="J7">
-        <v>0.9626025343605399</v>
+        <v>0.9656838605972748</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.5772876666666668</v>
+        <v>0.8689623333333333</v>
       </c>
       <c r="N7">
-        <v>1.731863</v>
+        <v>2.606887</v>
       </c>
       <c r="O7">
-        <v>0.2241579014468518</v>
+        <v>0.2842399713021852</v>
       </c>
       <c r="P7">
-        <v>0.2241579014468518</v>
+        <v>0.2842399713021851</v>
       </c>
       <c r="Q7">
-        <v>9.837739818706334</v>
+        <v>14.80825910754366</v>
       </c>
       <c r="R7">
-        <v>88.53965836835701</v>
+        <v>133.274331967893</v>
       </c>
       <c r="S7">
-        <v>0.2157749640296797</v>
+        <v>0.2744859528231528</v>
       </c>
       <c r="T7">
-        <v>0.2157749640296797</v>
+        <v>0.2744859528231527</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>51.123939</v>
       </c>
       <c r="I8">
-        <v>0.9626025343605399</v>
+        <v>0.9656838605972748</v>
       </c>
       <c r="J8">
-        <v>0.9626025343605399</v>
+        <v>0.9656838605972748</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>3.075748</v>
       </c>
       <c r="O8">
-        <v>0.3980991666542628</v>
+        <v>0.3353618792271216</v>
       </c>
       <c r="P8">
-        <v>0.3980991666542628</v>
+        <v>0.3353618792271216</v>
       </c>
       <c r="Q8">
         <v>17.47159479237466</v>
@@ -948,10 +948,10 @@
         <v>157.244353131372</v>
       </c>
       <c r="S8">
-        <v>0.3832112667482123</v>
+        <v>0.3238535542292039</v>
       </c>
       <c r="T8">
-        <v>0.3832112667482123</v>
+        <v>0.3238535542292038</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>51.123939</v>
       </c>
       <c r="I9">
-        <v>0.9626025343605399</v>
+        <v>0.9656838605972748</v>
       </c>
       <c r="J9">
-        <v>0.9626025343605399</v>
+        <v>0.9656838605972748</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.236315</v>
+        <v>0.378697</v>
       </c>
       <c r="N9">
-        <v>0.7089449999999999</v>
+        <v>1.136091</v>
       </c>
       <c r="O9">
-        <v>0.09175992757004355</v>
+        <v>0.1238728311724562</v>
       </c>
       <c r="P9">
-        <v>0.09175992757004356</v>
+        <v>0.1238728311724562</v>
       </c>
       <c r="Q9">
-        <v>4.027117881594999</v>
+        <v>6.453494109160999</v>
       </c>
       <c r="R9">
-        <v>36.244060934355</v>
+        <v>58.08144698244899</v>
       </c>
       <c r="S9">
-        <v>0.08832833883166349</v>
+        <v>0.119621993829732</v>
       </c>
       <c r="T9">
-        <v>0.08832833883166351</v>
+        <v>0.1196219938297319</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>51.123939</v>
       </c>
       <c r="I10">
-        <v>0.9626025343605399</v>
+        <v>0.9656838605972748</v>
       </c>
       <c r="J10">
-        <v>0.9626025343605399</v>
+        <v>0.9656838605972748</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4652066666666667</v>
+        <v>0.5162433333333333</v>
       </c>
       <c r="N10">
-        <v>1.39562</v>
+        <v>1.54873</v>
       </c>
       <c r="O10">
-        <v>0.180637412091635</v>
+        <v>0.1688646154416487</v>
       </c>
       <c r="P10">
-        <v>0.1806374120916351</v>
+        <v>0.1688646154416487</v>
       </c>
       <c r="Q10">
-        <v>7.927732416353334</v>
+        <v>8.797464227496665</v>
       </c>
       <c r="R10">
-        <v>71.34959174718</v>
+        <v>79.17717804746999</v>
       </c>
       <c r="S10">
-        <v>0.1738820306797371</v>
+        <v>0.1630698337579655</v>
       </c>
       <c r="T10">
-        <v>0.1738820306797371</v>
+        <v>0.1630698337579655</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>51.123939</v>
       </c>
       <c r="I11">
-        <v>0.9626025343605399</v>
+        <v>0.9656838605972748</v>
       </c>
       <c r="J11">
-        <v>0.9626025343605399</v>
+        <v>0.9656838605972748</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.271303</v>
+        <v>0.2679913333333333</v>
       </c>
       <c r="N11">
-        <v>0.813909</v>
+        <v>0.803974</v>
       </c>
       <c r="O11">
-        <v>0.1053455922372068</v>
+        <v>0.08766070285658835</v>
       </c>
       <c r="P11">
-        <v>0.1053455922372068</v>
+        <v>0.08766070285658834</v>
       </c>
       <c r="Q11">
-        <v>4.623359340839</v>
+        <v>4.566924192620665</v>
       </c>
       <c r="R11">
-        <v>41.610234067551</v>
+        <v>41.102317733586</v>
       </c>
       <c r="S11">
-        <v>0.1014059340712473</v>
+        <v>0.08465252595722079</v>
       </c>
       <c r="T11">
-        <v>0.1014059340712473</v>
+        <v>0.08465252595722078</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.08589233333333333</v>
+        <v>0.1331983333333333</v>
       </c>
       <c r="H12">
-        <v>0.257677</v>
+        <v>0.399595</v>
       </c>
       <c r="I12">
-        <v>0.004851749260682375</v>
+        <v>0.007547979475434553</v>
       </c>
       <c r="J12">
-        <v>0.004851749260682375</v>
+        <v>0.007547979475434553</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.5772876666666668</v>
+        <v>0.8689623333333333</v>
       </c>
       <c r="N12">
-        <v>1.731863</v>
+        <v>2.606887</v>
       </c>
       <c r="O12">
-        <v>0.2241579014468518</v>
+        <v>0.2842399713021852</v>
       </c>
       <c r="P12">
-        <v>0.2241579014468518</v>
+        <v>0.2842399713021851</v>
       </c>
       <c r="Q12">
-        <v>0.04958458469455557</v>
+        <v>0.1157443345294444</v>
       </c>
       <c r="R12">
-        <v>0.446261262251</v>
+        <v>1.041699010765</v>
       </c>
       <c r="S12">
-        <v>0.001087557932620876</v>
+        <v>0.002145437469487</v>
       </c>
       <c r="T12">
-        <v>0.001087557932620876</v>
+        <v>0.002145437469487</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.08589233333333333</v>
+        <v>0.1331983333333333</v>
       </c>
       <c r="H13">
-        <v>0.257677</v>
+        <v>0.399595</v>
       </c>
       <c r="I13">
-        <v>0.004851749260682375</v>
+        <v>0.007547979475434553</v>
       </c>
       <c r="J13">
-        <v>0.004851749260682375</v>
+        <v>0.007547979475434553</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>3.075748</v>
       </c>
       <c r="O13">
-        <v>0.3980991666542628</v>
+        <v>0.3353618792271216</v>
       </c>
       <c r="P13">
-        <v>0.3980991666542628</v>
+        <v>0.3353618792271216</v>
       </c>
       <c r="Q13">
-        <v>0.08806105748844444</v>
+        <v>0.1365615024511111</v>
       </c>
       <c r="R13">
-        <v>0.792549517396</v>
+        <v>1.22905352206</v>
       </c>
       <c r="S13">
-        <v>0.001931477337493089</v>
+        <v>0.002531304581249475</v>
       </c>
       <c r="T13">
-        <v>0.001931477337493089</v>
+        <v>0.002531304581249475</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.08589233333333333</v>
+        <v>0.1331983333333333</v>
       </c>
       <c r="H14">
-        <v>0.257677</v>
+        <v>0.399595</v>
       </c>
       <c r="I14">
-        <v>0.004851749260682375</v>
+        <v>0.007547979475434553</v>
       </c>
       <c r="J14">
-        <v>0.004851749260682375</v>
+        <v>0.007547979475434553</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.236315</v>
+        <v>0.378697</v>
       </c>
       <c r="N14">
-        <v>0.7089449999999999</v>
+        <v>1.136091</v>
       </c>
       <c r="O14">
-        <v>0.09175992757004355</v>
+        <v>0.1238728311724562</v>
       </c>
       <c r="P14">
-        <v>0.09175992757004356</v>
+        <v>0.1238728311724562</v>
       </c>
       <c r="Q14">
-        <v>0.02029764675166667</v>
+        <v>0.05044180923833334</v>
       </c>
       <c r="R14">
-        <v>0.182678820765</v>
+        <v>0.453976283145</v>
       </c>
       <c r="S14">
-        <v>0.000445196160748227</v>
+        <v>0.000934989587253669</v>
       </c>
       <c r="T14">
-        <v>0.0004451961607482271</v>
+        <v>0.0009349895872536688</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.08589233333333333</v>
+        <v>0.1331983333333333</v>
       </c>
       <c r="H15">
-        <v>0.257677</v>
+        <v>0.399595</v>
       </c>
       <c r="I15">
-        <v>0.004851749260682375</v>
+        <v>0.007547979475434553</v>
       </c>
       <c r="J15">
-        <v>0.004851749260682375</v>
+        <v>0.007547979475434553</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.4652066666666667</v>
+        <v>0.5162433333333333</v>
       </c>
       <c r="N15">
-        <v>1.39562</v>
+        <v>1.54873</v>
       </c>
       <c r="O15">
-        <v>0.180637412091635</v>
+        <v>0.1688646154416487</v>
       </c>
       <c r="P15">
-        <v>0.1806374120916351</v>
+        <v>0.1688646154416487</v>
       </c>
       <c r="Q15">
-        <v>0.03995768608222223</v>
+        <v>0.06876275159444444</v>
       </c>
       <c r="R15">
-        <v>0.35961917474</v>
+        <v>0.61886476435</v>
       </c>
       <c r="S15">
-        <v>0.0008764074305671677</v>
+        <v>0.001274586651480713</v>
       </c>
       <c r="T15">
-        <v>0.0008764074305671679</v>
+        <v>0.001274586651480713</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.08589233333333333</v>
+        <v>0.1331983333333333</v>
       </c>
       <c r="H16">
-        <v>0.257677</v>
+        <v>0.399595</v>
       </c>
       <c r="I16">
-        <v>0.004851749260682375</v>
+        <v>0.007547979475434553</v>
       </c>
       <c r="J16">
-        <v>0.004851749260682375</v>
+        <v>0.007547979475434553</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.271303</v>
+        <v>0.2679913333333333</v>
       </c>
       <c r="N16">
-        <v>0.813909</v>
+        <v>0.803974</v>
       </c>
       <c r="O16">
-        <v>0.1053455922372068</v>
+        <v>0.08766070285658835</v>
       </c>
       <c r="P16">
-        <v>0.1053455922372068</v>
+        <v>0.08766070285658834</v>
       </c>
       <c r="Q16">
-        <v>0.02330284771033334</v>
+        <v>0.03569599894777777</v>
       </c>
       <c r="R16">
-        <v>0.209725629393</v>
+        <v>0.32126399053</v>
       </c>
       <c r="S16">
-        <v>0.000511110399253015</v>
+        <v>0.000661661185963696</v>
       </c>
       <c r="T16">
-        <v>0.0005111103992530151</v>
+        <v>0.0006616611859636959</v>
       </c>
     </row>
   </sheetData>
